--- a/nhap lieu/nhap lieu tieu chi.xlsx
+++ b/nhap lieu/nhap lieu tieu chi.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="27945" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$237</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="712">
   <si>
     <t>id_category</t>
   </si>
@@ -1716,6 +1716,456 @@
   </si>
   <si>
     <t>Các mẫu strike-off, các mẫu thử nghiệm trước sản xuất, mẫu đối chiếu đã được phê duyệt về màu sắc, thông tin phân loại bản in và các tài liệu liên quan không?</t>
+  </si>
+  <si>
+    <t>P.RKATLD 1</t>
+  </si>
+  <si>
+    <t>Sơ đồ thoát hiểm</t>
+  </si>
+  <si>
+    <t>Sơ đồ thoát hiểm được cập nhật kịp thời đúng với hiện trạng</t>
+  </si>
+  <si>
+    <t>P.RKATLD 2</t>
+  </si>
+  <si>
+    <t>Chỉ dẫn thoát nạn</t>
+  </si>
+  <si>
+    <t>Vạch kẻ thoát hiểm, mũi tên hoặc bảng chỉ dẫn hướng thoát nạn rõ ràng, không bị quá mờ</t>
+  </si>
+  <si>
+    <t>P.RKATLD 3</t>
+  </si>
+  <si>
+    <t>An toàn sử dụng máy</t>
+  </si>
+  <si>
+    <t>Người lao động không sử dụng điện thoại, tai nghe,… trong thời gian làm việc (trừ trường hợp cần thiết)</t>
+  </si>
+  <si>
+    <t>P.RKATLD 4</t>
+  </si>
+  <si>
+    <t>Phương tiện bảo hộ máy móc, thiết bị</t>
+  </si>
+  <si>
+    <t>Người lao động làm việc với máy sử dụng đầy đủ và đúng phương tiện bảo hộ cá nhân</t>
+  </si>
+  <si>
+    <t>P.RKATLD 5</t>
+  </si>
+  <si>
+    <t>Phương tiện bảo hộ hoá chất</t>
+  </si>
+  <si>
+    <t>Người lao động thao tác với hoá chất sử dụng đầy đủ và đúng phương tiện bảo hộ cá nhân</t>
+  </si>
+  <si>
+    <t>P.RKATLD 6</t>
+  </si>
+  <si>
+    <t>Người lao động làm việc trong tư thế đáp ứng yêu cầu khoa học lao động</t>
+  </si>
+  <si>
+    <t>P.RKATLD 7</t>
+  </si>
+  <si>
+    <t>Đảm bảo an toàn, không có tai nạn lao động</t>
+  </si>
+  <si>
+    <t>P.RKATLD 8</t>
+  </si>
+  <si>
+    <t>Đảm bảo an toàn khi có sự cố</t>
+  </si>
+  <si>
+    <t>Thiết bị rửa mắt và vòi sen tắm khẩn cấp, dụng cụ ứng phó tràn đổ, dụng cụ bảo hộ trang bị ứng phó sự cố được kiểm tra định kỳ</t>
+  </si>
+  <si>
+    <t>P.RKTTNV 1</t>
+  </si>
+  <si>
+    <t>Người lao động mặc đồng phục theo quy định</t>
+  </si>
+  <si>
+    <t>Người lao động mặc đồng phục, đeo thẻ nhân viên đúng nội quy lao động</t>
+  </si>
+  <si>
+    <t>P.RKTTNV 2</t>
+  </si>
+  <si>
+    <t>Vật dụng cá nhân để đúng nơi quy định</t>
+  </si>
+  <si>
+    <t>Vật dụng cá nhân, nước uống, thức ăn của Người lao động được để đúng nơi quy định</t>
+  </si>
+  <si>
+    <t>P.RKTTNV 3</t>
+  </si>
+  <si>
+    <t>Người lao động không mang đồ vật bị cấm vào xưởng</t>
+  </si>
+  <si>
+    <t>Trong khu vực sản xuất/ kho, không đem và sử dụng nước uống có màu (nước ngọt, nước trái cây)</t>
+  </si>
+  <si>
+    <t>P.RKTTNV 4</t>
+  </si>
+  <si>
+    <t>Hệ thống thoát nước đúng quy định</t>
+  </si>
+  <si>
+    <t>Hệ thống thoát nước hoạt động tốt, cống rãnh được che đậy kỹ càng</t>
+  </si>
+  <si>
+    <t>P.RKTTNV 5</t>
+  </si>
+  <si>
+    <t>Cảnh báo, trực quan khu vực hạn chế</t>
+  </si>
+  <si>
+    <t>Khu vực hạn chế phải có cảnh báo, trực quan</t>
+  </si>
+  <si>
+    <t>P.RKTTNV 6</t>
+  </si>
+  <si>
+    <t>Khu vực để chất thải</t>
+  </si>
+  <si>
+    <t>Khu vực chất thải nguy hại được tách khỏi chất thải không nguy hại</t>
+  </si>
+  <si>
+    <t>P.RKTTNV 7</t>
+  </si>
+  <si>
+    <t>Phân loại chất thải</t>
+  </si>
+  <si>
+    <t>Chất thải được phân loại đúng với trực quan thùng rác</t>
+  </si>
+  <si>
+    <t>P.RKTTNV 8</t>
+  </si>
+  <si>
+    <t>Trực quan khu vực</t>
+  </si>
+  <si>
+    <t>Trực quan khu vực đầy đủ, rõ ràng, để vật dụng đúng vị trí</t>
+  </si>
+  <si>
+    <t>P.WATLD 1</t>
+  </si>
+  <si>
+    <t>Đường thoát hiểm - cửa thoát hiểm thông thoáng</t>
+  </si>
+  <si>
+    <t>Đường thoát hiểm thông thoáng, không bị lấn chiếm, cửa thoát hiểm bảo đảm an toàn</t>
+  </si>
+  <si>
+    <t>P.WATLD 2</t>
+  </si>
+  <si>
+    <t>Công - Dụng cụ phòng cháy chữa cháy dễ nhìn, dễ thấy</t>
+  </si>
+  <si>
+    <t>P.WATLD 3</t>
+  </si>
+  <si>
+    <t>Người lao động có lối thoát hiểm</t>
+  </si>
+  <si>
+    <t>Người lao động làm việc tại khu vực có thể thoát hiểm dễ dàng, không bị che chắn bởi máy móc, thiết bị, hay người lao động khác</t>
+  </si>
+  <si>
+    <t>P.WATLD 4</t>
+  </si>
+  <si>
+    <t>P.WATLD 5</t>
+  </si>
+  <si>
+    <t>Tình trạng dây điện tốt</t>
+  </si>
+  <si>
+    <t>P.WATLD 6</t>
+  </si>
+  <si>
+    <t>An toàn điện</t>
+  </si>
+  <si>
+    <t>Không sử dụng các thiết bị không tương thích với máy</t>
+  </si>
+  <si>
+    <t>P.WATLD 7</t>
+  </si>
+  <si>
+    <t>Có Trực quan - Cảnh báo máy</t>
+  </si>
+  <si>
+    <t>Máy móc có trực quan vận hành, yêu cầu an toàn, cảnh báo nguy hiểm,... đầy đủ, rõ ràng</t>
+  </si>
+  <si>
+    <t>P.WATLD 8</t>
+  </si>
+  <si>
+    <t>P.WATLD 9</t>
+  </si>
+  <si>
+    <t>P.WATLD 10</t>
+  </si>
+  <si>
+    <t>Thùng/ lọ chứa hoá chất an toàn</t>
+  </si>
+  <si>
+    <t>Các thùng,ca, lọ, hũ,... đựng hoá chất còn nguyên vẹn, không bị bể vỡ, rò rỉ hoá chất</t>
+  </si>
+  <si>
+    <t>P.WATLD 11</t>
+  </si>
+  <si>
+    <t>Lưu trữ thùng/ lọ chứa hoá chất</t>
+  </si>
+  <si>
+    <t>Các thùng, ca, lọ, hũ,,.. đựng hoá chất được để trong khay chống tràn (hay khay chứa thứ cấp) và không xếp chồng lên nhau</t>
+  </si>
+  <si>
+    <t>P.WATLD 12</t>
+  </si>
+  <si>
+    <t>Nhãn an toàn</t>
+  </si>
+  <si>
+    <t>Các thùng, ca, lọ, hũ,... đựng hoá chất có nhãn an toàn (tem phụ) đúng loại, tên hoá chất</t>
+  </si>
+  <si>
+    <t>P.WATLD 13</t>
+  </si>
+  <si>
+    <t>P.WATLD 14</t>
+  </si>
+  <si>
+    <t>Phương tiện bảo hộ của Kho</t>
+  </si>
+  <si>
+    <t>Kho hoá chất, kho chất thải nguy hại được trang bị đầy đủ và đúng phương tiện bảo hộ cá nhân cần thiết</t>
+  </si>
+  <si>
+    <t>P.WATLD 15</t>
+  </si>
+  <si>
+    <t>Kiểm tra định kỳ kho</t>
+  </si>
+  <si>
+    <t>Kho hoá chất và kho chất thải nguy hại được kiểm tra định kỳ theo quy định</t>
+  </si>
+  <si>
+    <t>P.WATLD 16</t>
+  </si>
+  <si>
+    <t>P.WATLD 17</t>
+  </si>
+  <si>
+    <t>Hàng hoá sắp xếp đúng chiều cao</t>
+  </si>
+  <si>
+    <t>Bán thành phẩm, thành phẩm không để vượt quá chiều cao của xe để bán thành phẩm, thành phẩm. Các thùng đựng công cụ, dụng cụ phải để thấp hơn quy định và có trực quan đầy đủ theo quy định</t>
+  </si>
+  <si>
+    <t>P.WATLD 18</t>
+  </si>
+  <si>
+    <t>P.WATLD 19</t>
+  </si>
+  <si>
+    <t>Các thiết bị ứng phó sự cố được giữ sạch sẽ, và dễ dàng tiếp cận, không bị che khuất</t>
+  </si>
+  <si>
+    <t>P.WTTNV 1</t>
+  </si>
+  <si>
+    <t>P.WTTNV 2</t>
+  </si>
+  <si>
+    <t>P.WTTNV 3</t>
+  </si>
+  <si>
+    <t>P.WTTNV 4</t>
+  </si>
+  <si>
+    <t>P.WTTNV 5</t>
+  </si>
+  <si>
+    <t>P.WTTNV 6</t>
+  </si>
+  <si>
+    <t>Thùng chứa chất thải nguy hại được đậy nắp theo quy định</t>
+  </si>
+  <si>
+    <t>Thùng đựng chất thải nguy hại được đậy kín sau khi sử dụng</t>
+  </si>
+  <si>
+    <t>P.WTTNV 7</t>
+  </si>
+  <si>
+    <t>Cập nhật biểu mẫu kiểm tra theo quy định</t>
+  </si>
+  <si>
+    <t>Các biểu mẫu kiểm tra máy móc, thiết bị được thực hiện và cập nhật định kỳ theo quy định</t>
+  </si>
+  <si>
+    <t>P.WTTNV 8</t>
+  </si>
+  <si>
+    <t>Định vị các công cụ, dụng cụ, thiết bị</t>
+  </si>
+  <si>
+    <t>Định vị các công cụ, dụng cụ, thiết bị rõ ràng, không bị rách</t>
+  </si>
+  <si>
+    <t>P.WTTNV 9</t>
+  </si>
+  <si>
+    <t>Thực hiện vệ sinh các khu vực</t>
+  </si>
+  <si>
+    <t>Khu vực làm việc, máy móc, thiết bị, công cụ, dụng cụ,... được vệ sinh theo quy định</t>
+  </si>
+  <si>
+    <t>P.WTTNV 10</t>
+  </si>
+  <si>
+    <t>Sơ đồ sắp xếp, quy trình làm việc được hiển thị rõ ràng</t>
+  </si>
+  <si>
+    <t>Tất cả các khu vực phải có sơ đồ bố trí sắp xếp, phân chia rõ ràng, các quy trình làm việc, các tiêu chuẩn được hiển thị trực quan đầy đủ dễ nhìn, dễ thấy. Bàn ủi khi không sử dụng được đặt ngay ngắn lên đế cao su</t>
+  </si>
+  <si>
+    <t>P.WTTNV 11</t>
+  </si>
+  <si>
+    <t>Các công cụ, máy móc, … được sắp xếp đúng quy định</t>
+  </si>
+  <si>
+    <t>Các công cụ, máy móc, NPL, tài liệu... phải được sắp xếp theo quy định, không vi phạm về an toàn và được hiển thị trực quan rõ ràng.</t>
+  </si>
+  <si>
+    <t>P.WTTNV 12</t>
+  </si>
+  <si>
+    <t>Cập nhật vệ sinh</t>
+  </si>
+  <si>
+    <t>P.WTTNV 13</t>
+  </si>
+  <si>
+    <t>Vệ sinh các khu vực</t>
+  </si>
+  <si>
+    <t>Tất cả các khu vực, công cụ, thiết bị, máy móc... phải được vệ sinh sạch sẽ, gọn gàng; không bị bong tróc, hư hỏng.</t>
+  </si>
+  <si>
+    <t>P.WQMS 1</t>
+  </si>
+  <si>
+    <t>P.WQMS 2</t>
+  </si>
+  <si>
+    <t>Biểu mẫu, trực quan cập nhật đầy đủ, chính xác.</t>
+  </si>
+  <si>
+    <t>P.CDATLD 1</t>
+  </si>
+  <si>
+    <t>Kiểm tra đèn khẩn cấp định kỳ</t>
+  </si>
+  <si>
+    <t>Đèn exit, đèn mắt ếch được kiểm tra định kỳ</t>
+  </si>
+  <si>
+    <t>P.CDATLD 2</t>
+  </si>
+  <si>
+    <t>Có cảnh báo điện</t>
+  </si>
+  <si>
+    <t>Tủ điện, thiết bị điện có cảnh báo điện rõ ràng</t>
+  </si>
+  <si>
+    <t>P.CDATLD 3</t>
+  </si>
+  <si>
+    <t>Máy móc, thiết bị điện phải có đầy đủ dây nối đất trung tính, carte, bảo hiểm puly</t>
+  </si>
+  <si>
+    <t>P.CDATLD 4</t>
+  </si>
+  <si>
+    <t>P.CDATLD 5</t>
+  </si>
+  <si>
+    <t>P.CDATLD 6</t>
+  </si>
+  <si>
+    <t>P.CDATLD 7</t>
+  </si>
+  <si>
+    <t>P.CDATLD 8</t>
+  </si>
+  <si>
+    <t>Hoá chất sử dụng đúng nơi</t>
+  </si>
+  <si>
+    <t>Dầu máy không được để trên khu vực sản xuất, phải để đúng nơi quy định</t>
+  </si>
+  <si>
+    <t>P.CDATLD 9</t>
+  </si>
+  <si>
+    <t>P.CDATLD 10</t>
+  </si>
+  <si>
+    <t>P.CDPNKL 1</t>
+  </si>
+  <si>
+    <t>Kéo được dán thông tin và buộc cố định</t>
+  </si>
+  <si>
+    <t>Kéo tại khu vực sản xuất được buộc dây và có dán thông tin người sử dụng</t>
+  </si>
+  <si>
+    <t>P.CDPNKL 2</t>
+  </si>
+  <si>
+    <t>Kiểm soát kim loại</t>
+  </si>
+  <si>
+    <t>Kim, kẹp được kiểm soát theo số, các công cụ, dụng cụ khác được dán tên người/ bộ phận sử dụng</t>
+  </si>
+  <si>
+    <t>P.CDTTNV 1</t>
+  </si>
+  <si>
+    <t>P.CDTTNV 2</t>
+  </si>
+  <si>
+    <t>P.CDTTNV 3</t>
+  </si>
+  <si>
+    <t>P.CDTTNV 4</t>
+  </si>
+  <si>
+    <t>P.CDTTNV 5</t>
+  </si>
+  <si>
+    <t>P.CDTTNV 6</t>
+  </si>
+  <si>
+    <t>P.CDTTNV 7</t>
+  </si>
+  <si>
+    <t>P.CDTTNV 8</t>
   </si>
 </sst>
 </file>
@@ -2664,20 +3114,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
+      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.4285714285714" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85714285714286" style="1" customWidth="1"/>
     <col min="7" max="16379" width="21.2857142857143" style="1" customWidth="1"/>
@@ -7404,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" ht="45" spans="1:6">
+    <row r="237" ht="60" spans="1:6">
       <c r="A237" s="1">
         <v>5</v>
       </c>
@@ -7424,8 +7874,1408 @@
         <v>0</v>
       </c>
     </row>
+    <row r="238" ht="30" spans="1:6">
+      <c r="A238" s="1">
+        <v>1</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" ht="30" spans="1:6">
+      <c r="A239" s="1">
+        <v>1</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" ht="45" spans="1:6">
+      <c r="A240" s="1">
+        <v>1</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" ht="45" spans="1:6">
+      <c r="A241" s="1">
+        <v>1</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" ht="45" spans="1:6">
+      <c r="A242" s="1">
+        <v>1</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" ht="30" spans="1:6">
+      <c r="A243" s="1">
+        <v>1</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" ht="60" spans="1:6">
+      <c r="A244" s="1">
+        <v>1</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" ht="45" spans="1:6">
+      <c r="A245" s="1">
+        <v>1</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" ht="60" spans="1:6">
+      <c r="A246" s="1">
+        <v>6</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" ht="45" spans="1:6">
+      <c r="A247" s="1">
+        <v>6</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" ht="75" spans="1:6">
+      <c r="A248" s="1">
+        <v>6</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E248" s="1">
+        <v>0</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" ht="45" spans="1:6">
+      <c r="A249" s="1">
+        <v>6</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E249" s="1">
+        <v>0</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" ht="45" spans="1:6">
+      <c r="A250" s="1">
+        <v>6</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E250" s="1">
+        <v>0</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" ht="30" spans="1:6">
+      <c r="A251" s="1">
+        <v>6</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E251" s="1">
+        <v>0</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" ht="30" spans="1:6">
+      <c r="A252" s="1">
+        <v>6</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E252" s="1">
+        <v>0</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" ht="30" spans="1:6">
+      <c r="A253" s="1">
+        <v>6</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" ht="30" spans="1:6">
+      <c r="A254" s="1">
+        <v>1</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E254" s="1">
+        <v>0</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" ht="45" spans="1:6">
+      <c r="A255" s="1">
+        <v>1</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" ht="30" spans="1:6">
+      <c r="A256" s="1">
+        <v>1</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" ht="30" spans="1:6">
+      <c r="A257" s="1">
+        <v>1</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" ht="30" spans="1:6">
+      <c r="A258" s="1">
+        <v>1</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" ht="30" spans="1:6">
+      <c r="A259" s="1">
+        <v>1</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" ht="30" spans="1:6">
+      <c r="A260" s="1">
+        <v>1</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" ht="30" spans="1:6">
+      <c r="A261" s="1">
+        <v>1</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" ht="30" spans="1:6">
+      <c r="A262" s="1">
+        <v>1</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E262" s="1">
+        <v>0</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" ht="30" spans="1:6">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" ht="30" spans="1:6">
+      <c r="A264" s="1">
+        <v>1</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" ht="30" spans="1:6">
+      <c r="A265" s="1">
+        <v>1</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" ht="30" spans="1:6">
+      <c r="A266" s="1">
+        <v>1</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E266" s="1">
+        <v>0</v>
+      </c>
+      <c r="F266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" ht="30" spans="1:6">
+      <c r="A267" s="1">
+        <v>1</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E267" s="1">
+        <v>0</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" ht="30" spans="1:6">
+      <c r="A268" s="1">
+        <v>1</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E268" s="1">
+        <v>0</v>
+      </c>
+      <c r="F268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" ht="30" spans="1:6">
+      <c r="A269" s="1">
+        <v>1</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E269" s="1">
+        <v>0</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" ht="45" spans="1:6">
+      <c r="A270" s="1">
+        <v>1</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+      <c r="F270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" ht="30" spans="1:6">
+      <c r="A271" s="1">
+        <v>1</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" ht="30" spans="1:6">
+      <c r="A272" s="1">
+        <v>1</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E272" s="1">
+        <v>0</v>
+      </c>
+      <c r="F272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" ht="30" spans="1:6">
+      <c r="A273" s="1">
+        <v>6</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" ht="30" spans="1:6">
+      <c r="A274" s="1">
+        <v>6</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0</v>
+      </c>
+      <c r="F274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" ht="30" spans="1:6">
+      <c r="A275" s="1">
+        <v>6</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+      <c r="F275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" ht="30" spans="1:6">
+      <c r="A276" s="1">
+        <v>6</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E276" s="1">
+        <v>0</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" ht="30" spans="1:6">
+      <c r="A277" s="1">
+        <v>6</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
+      <c r="F277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" ht="30" spans="1:6">
+      <c r="A278" s="1">
+        <v>6</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E278" s="1">
+        <v>0</v>
+      </c>
+      <c r="F278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" ht="30" spans="1:6">
+      <c r="A279" s="1">
+        <v>6</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E279" s="1">
+        <v>0</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" ht="30" spans="1:6">
+      <c r="A280" s="1">
+        <v>6</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E280" s="1">
+        <v>0</v>
+      </c>
+      <c r="F280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" ht="30" spans="1:6">
+      <c r="A281" s="1">
+        <v>6</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
+      <c r="F281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" ht="60" spans="1:6">
+      <c r="A282" s="1">
+        <v>6</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E282" s="1">
+        <v>0</v>
+      </c>
+      <c r="F282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" ht="30" spans="1:6">
+      <c r="A283" s="1">
+        <v>6</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E283" s="1">
+        <v>0</v>
+      </c>
+      <c r="F283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" ht="30" spans="1:6">
+      <c r="A284" s="1">
+        <v>6</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E284" s="1">
+        <v>0</v>
+      </c>
+      <c r="F284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" ht="30" spans="1:6">
+      <c r="A285" s="1">
+        <v>6</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E285" s="1">
+        <v>0</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>5</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E286" s="1">
+        <v>0</v>
+      </c>
+      <c r="F286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>5</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E287" s="1">
+        <v>0</v>
+      </c>
+      <c r="F287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" ht="30" spans="1:6">
+      <c r="A288" s="1">
+        <v>1</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E288" s="1">
+        <v>0</v>
+      </c>
+      <c r="F288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" ht="30" spans="1:6">
+      <c r="A289" s="1">
+        <v>1</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E289" s="1">
+        <v>0</v>
+      </c>
+      <c r="F289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" ht="30" spans="1:6">
+      <c r="A290" s="1">
+        <v>1</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E290" s="1">
+        <v>0</v>
+      </c>
+      <c r="F290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" ht="30" spans="1:6">
+      <c r="A291" s="1">
+        <v>1</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E291" s="1">
+        <v>0</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" ht="30" spans="1:6">
+      <c r="A292" s="1">
+        <v>1</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E292" s="1">
+        <v>0</v>
+      </c>
+      <c r="F292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" ht="30" spans="1:6">
+      <c r="A293" s="1">
+        <v>1</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E293" s="1">
+        <v>0</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" ht="30" spans="1:6">
+      <c r="A294" s="1">
+        <v>1</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E294" s="1">
+        <v>0</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" ht="30" spans="1:6">
+      <c r="A295" s="1">
+        <v>1</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E295" s="1">
+        <v>0</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" ht="30" spans="1:6">
+      <c r="A296" s="1">
+        <v>1</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E296" s="1">
+        <v>0</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" ht="30" spans="1:6">
+      <c r="A297" s="1">
+        <v>1</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E297" s="1">
+        <v>0</v>
+      </c>
+      <c r="F297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" ht="30" spans="1:6">
+      <c r="A298" s="1">
+        <v>4</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E298" s="1">
+        <v>0</v>
+      </c>
+      <c r="F298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" ht="30" spans="1:6">
+      <c r="A299" s="1">
+        <v>4</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E299" s="1">
+        <v>0</v>
+      </c>
+      <c r="F299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" ht="30" spans="1:6">
+      <c r="A300" s="1">
+        <v>6</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E300" s="1">
+        <v>0</v>
+      </c>
+      <c r="F300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" ht="30" spans="1:6">
+      <c r="A301" s="1">
+        <v>6</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E301" s="1">
+        <v>0</v>
+      </c>
+      <c r="F301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" ht="30" spans="1:6">
+      <c r="A302" s="1">
+        <v>6</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E302" s="1">
+        <v>0</v>
+      </c>
+      <c r="F302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" ht="30" spans="1:6">
+      <c r="A303" s="1">
+        <v>6</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E303" s="1">
+        <v>0</v>
+      </c>
+      <c r="F303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" ht="30" spans="1:6">
+      <c r="A304" s="1">
+        <v>6</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E304" s="1">
+        <v>0</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" ht="30" spans="1:6">
+      <c r="A305" s="1">
+        <v>6</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E305" s="1">
+        <v>0</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" ht="30" spans="1:6">
+      <c r="A306" s="1">
+        <v>6</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E306" s="1">
+        <v>0</v>
+      </c>
+      <c r="F306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" ht="30" spans="1:6">
+      <c r="A307" s="1">
+        <v>6</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E307" s="1">
+        <v>0</v>
+      </c>
+      <c r="F307" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F192" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F237" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
